--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N2">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O2">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P2">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q2">
-        <v>538.1659129487397</v>
+        <v>1557.6307852312</v>
       </c>
       <c r="R2">
-        <v>4843.493216538658</v>
+        <v>14018.6770670808</v>
       </c>
       <c r="S2">
-        <v>0.001120101206166364</v>
+        <v>0.001945393671023233</v>
       </c>
       <c r="T2">
-        <v>0.001120101206166364</v>
+        <v>0.001945393671023233</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>247.152878</v>
       </c>
       <c r="O3">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P3">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q3">
-        <v>1251.333346166716</v>
+        <v>2859.480835457707</v>
       </c>
       <c r="R3">
-        <v>11262.00011550044</v>
+        <v>25735.32751911936</v>
       </c>
       <c r="S3">
-        <v>0.002604438439212398</v>
+        <v>0.003571331519931379</v>
       </c>
       <c r="T3">
-        <v>0.002604438439212397</v>
+        <v>0.003571331519931379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N4">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O4">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P4">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q4">
-        <v>1442.655344079894</v>
+        <v>2621.142961827928</v>
       </c>
       <c r="R4">
-        <v>12983.89809671904</v>
+        <v>23590.28665645135</v>
       </c>
       <c r="S4">
-        <v>0.003002642776336814</v>
+        <v>0.003273660855406291</v>
       </c>
       <c r="T4">
-        <v>0.003002642776336813</v>
+        <v>0.003273660855406292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N5">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O5">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P5">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q5">
-        <v>354.3115009437801</v>
+        <v>587.92785552972</v>
       </c>
       <c r="R5">
-        <v>3188.803508494021</v>
+        <v>5291.350699767479</v>
       </c>
       <c r="S5">
-        <v>0.0007374393844292854</v>
+        <v>0.000734288985560857</v>
       </c>
       <c r="T5">
-        <v>0.0007374393844292851</v>
+        <v>0.000734288985560857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N6">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O6">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P6">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q6">
-        <v>1021.064191883702</v>
+        <v>3087.054748934062</v>
       </c>
       <c r="R6">
-        <v>9189.577726953316</v>
+        <v>27783.49274040656</v>
       </c>
       <c r="S6">
-        <v>0.002125172192039512</v>
+        <v>0.003855558600677718</v>
       </c>
       <c r="T6">
-        <v>0.002125172192039511</v>
+        <v>0.003855558600677719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N7">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O7">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P7">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q7">
-        <v>1768.341238274484</v>
+        <v>2246.653387438909</v>
       </c>
       <c r="R7">
-        <v>15915.07114447035</v>
+        <v>20219.88048695018</v>
       </c>
       <c r="S7">
-        <v>0.003680502808236453</v>
+        <v>0.002805944336968036</v>
       </c>
       <c r="T7">
-        <v>0.003680502808236452</v>
+        <v>0.002805944336968037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N8">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O8">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P8">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q8">
-        <v>3383.804406180829</v>
+        <v>4285.874157531708</v>
       </c>
       <c r="R8">
-        <v>30454.23965562746</v>
+        <v>38572.86741778537</v>
       </c>
       <c r="S8">
-        <v>0.007042815803822976</v>
+        <v>0.005352816944759245</v>
       </c>
       <c r="T8">
-        <v>0.007042815803822974</v>
+        <v>0.005352816944759245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>247.152878</v>
       </c>
       <c r="O9">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P9">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q9">
         <v>7867.958910959949</v>
@@ -1013,10 +1013,10 @@
         <v>70811.63019863954</v>
       </c>
       <c r="S9">
-        <v>0.01637582398696638</v>
+        <v>0.009826640314495592</v>
       </c>
       <c r="T9">
-        <v>0.01637582398696637</v>
+        <v>0.009826640314495592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N10">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O10">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P10">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q10">
-        <v>9070.926627719809</v>
+        <v>7212.164134022933</v>
       </c>
       <c r="R10">
-        <v>81638.33964947828</v>
+        <v>64909.47720620639</v>
       </c>
       <c r="S10">
-        <v>0.01887959755957884</v>
+        <v>0.009007589342570944</v>
       </c>
       <c r="T10">
-        <v>0.01887959755957884</v>
+        <v>0.009007589342570945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N11">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O11">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P11">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q11">
-        <v>2227.790332325086</v>
+        <v>1617.703518959308</v>
       </c>
       <c r="R11">
-        <v>20050.11299092577</v>
+        <v>14559.33167063377</v>
       </c>
       <c r="S11">
-        <v>0.0046367682870334</v>
+        <v>0.002020421153212075</v>
       </c>
       <c r="T11">
-        <v>0.004636768287033399</v>
+        <v>0.002020421153212075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N12">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O12">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P12">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q12">
-        <v>6420.104708152769</v>
+        <v>8494.136284920813</v>
       </c>
       <c r="R12">
-        <v>57780.94237337492</v>
+        <v>76447.22656428732</v>
       </c>
       <c r="S12">
-        <v>0.01336236066664673</v>
+        <v>0.01060870080777263</v>
       </c>
       <c r="T12">
-        <v>0.01336236066664673</v>
+        <v>0.01060870080777263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N13">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O13">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P13">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q13">
-        <v>11118.72887102459</v>
+        <v>6181.743315201794</v>
       </c>
       <c r="R13">
-        <v>100068.5598392213</v>
+        <v>55635.68983681615</v>
       </c>
       <c r="S13">
-        <v>0.02314175112138266</v>
+        <v>0.00772065141194467</v>
       </c>
       <c r="T13">
-        <v>0.02314175112138266</v>
+        <v>0.007720651411944671</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N14">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O14">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P14">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q14">
-        <v>14246.63423095806</v>
+        <v>46139.26732658419</v>
       </c>
       <c r="R14">
-        <v>128219.7080786225</v>
+        <v>415253.4059392578</v>
       </c>
       <c r="S14">
-        <v>0.02965195639848543</v>
+        <v>0.05762536250171952</v>
       </c>
       <c r="T14">
-        <v>0.02965195639848542</v>
+        <v>0.05762536250171953</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>247.152878</v>
       </c>
       <c r="O15">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P15">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q15">
-        <v>33126.00827160911</v>
+        <v>84701.94087929788</v>
       </c>
       <c r="R15">
-        <v>298134.074444482</v>
+        <v>762317.4679136808</v>
       </c>
       <c r="S15">
-        <v>0.06894617612847681</v>
+        <v>0.1057879834376231</v>
       </c>
       <c r="T15">
-        <v>0.06894617612847678</v>
+        <v>0.1057879834376232</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N16">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O16">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P16">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q16">
-        <v>38190.79305084278</v>
+        <v>77642.02978244462</v>
       </c>
       <c r="R16">
-        <v>343717.137457585</v>
+        <v>698778.2680420018</v>
       </c>
       <c r="S16">
-        <v>0.0794876678946657</v>
+        <v>0.09697054961695915</v>
       </c>
       <c r="T16">
-        <v>0.07948766789466569</v>
+        <v>0.09697054961695918</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N17">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O17">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P17">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q17">
-        <v>9379.535634484868</v>
+        <v>17415.26987796708</v>
       </c>
       <c r="R17">
-        <v>84415.82071036381</v>
+        <v>156737.4289017037</v>
       </c>
       <c r="S17">
-        <v>0.01952191494236759</v>
+        <v>0.0217506973545916</v>
       </c>
       <c r="T17">
-        <v>0.01952191494236758</v>
+        <v>0.0217506973545916</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N18">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O18">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P18">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q18">
-        <v>27030.19221041123</v>
+        <v>91443.00797298914</v>
       </c>
       <c r="R18">
-        <v>243271.7298937011</v>
+        <v>822987.0717569024</v>
       </c>
       <c r="S18">
-        <v>0.0562587673602325</v>
+        <v>0.1142071989438597</v>
       </c>
       <c r="T18">
-        <v>0.05625876736023248</v>
+        <v>0.1142071989438598</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N19">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O19">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P19">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q19">
-        <v>46812.5353372495</v>
+        <v>66549.10920872277</v>
       </c>
       <c r="R19">
-        <v>421312.8180352455</v>
+        <v>598941.982878505</v>
       </c>
       <c r="S19">
-        <v>0.09743236431987308</v>
+        <v>0.08311611268498831</v>
       </c>
       <c r="T19">
-        <v>0.09743236431987307</v>
+        <v>0.08311611268498834</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N20">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O20">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P20">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q20">
-        <v>1316.095436548534</v>
+        <v>2146.910574140309</v>
       </c>
       <c r="R20">
-        <v>11844.85892893681</v>
+        <v>19322.19516726278</v>
       </c>
       <c r="S20">
-        <v>0.002739229762492361</v>
+        <v>0.002681371145707986</v>
       </c>
       <c r="T20">
-        <v>0.002739229762492361</v>
+        <v>0.002681371145707986</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>247.152878</v>
       </c>
       <c r="O21">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P21">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q21">
-        <v>3060.160569195854</v>
+        <v>3941.273952982697</v>
       </c>
       <c r="R21">
-        <v>27541.44512276269</v>
+        <v>35471.46557684428</v>
       </c>
       <c r="S21">
-        <v>0.006369205968170472</v>
+        <v>0.00492243057635972</v>
       </c>
       <c r="T21">
-        <v>0.006369205968170471</v>
+        <v>0.00492243057635972</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N22">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O22">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P22">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q22">
-        <v>3528.042317754064</v>
+        <v>3612.768567774907</v>
       </c>
       <c r="R22">
-        <v>31752.38085978658</v>
+        <v>32514.91710997417</v>
       </c>
       <c r="S22">
-        <v>0.00734302258920421</v>
+        <v>0.004512145736499273</v>
       </c>
       <c r="T22">
-        <v>0.007343022589204209</v>
+        <v>0.004512145736499274</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N23">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O23">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P23">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q23">
-        <v>866.4758177524827</v>
+        <v>810.3515556037487</v>
       </c>
       <c r="R23">
-        <v>7798.282359772345</v>
+        <v>7293.164000433739</v>
       </c>
       <c r="S23">
-        <v>0.001803422671756966</v>
+        <v>0.001012083738022275</v>
       </c>
       <c r="T23">
-        <v>0.001803422671756965</v>
+        <v>0.001012083738022275</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N24">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O24">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P24">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q24">
-        <v>2497.032775632624</v>
+        <v>4254.943177983511</v>
       </c>
       <c r="R24">
-        <v>22473.29498069362</v>
+        <v>38294.4886018516</v>
       </c>
       <c r="S24">
-        <v>0.005197150834949768</v>
+        <v>0.005314185882493306</v>
       </c>
       <c r="T24">
-        <v>0.005197150834949767</v>
+        <v>0.005314185882493306</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N25">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O25">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P25">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q25">
-        <v>4324.513645246996</v>
+        <v>3096.602840450924</v>
       </c>
       <c r="R25">
-        <v>38920.62280722297</v>
+        <v>27869.42556405832</v>
       </c>
       <c r="S25">
-        <v>0.009000742770167684</v>
+        <v>0.003867483632580895</v>
       </c>
       <c r="T25">
-        <v>0.009000742770167684</v>
+        <v>0.003867483632580896</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N26">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O26">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P26">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q26">
-        <v>14259.13336862593</v>
+        <v>19217.77707249561</v>
       </c>
       <c r="R26">
-        <v>128332.2003176334</v>
+        <v>172959.9936524605</v>
       </c>
       <c r="S26">
-        <v>0.02967797123673691</v>
+        <v>0.02400192795523049</v>
       </c>
       <c r="T26">
-        <v>0.02967797123673691</v>
+        <v>0.02400192795523049</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>247.152878</v>
       </c>
       <c r="O27">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P27">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q27">
-        <v>33155.071033456</v>
+        <v>35279.77602904338</v>
       </c>
       <c r="R27">
-        <v>298395.6393011039</v>
+        <v>317517.9842613904</v>
       </c>
       <c r="S27">
-        <v>0.06900666534530744</v>
+        <v>0.04406246567079176</v>
       </c>
       <c r="T27">
-        <v>0.06900666534530743</v>
+        <v>0.04406246567079176</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N28">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O28">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P28">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q28">
-        <v>38224.29934940069</v>
+        <v>32339.20489576942</v>
       </c>
       <c r="R28">
-        <v>344018.6941446062</v>
+        <v>291052.8440619248</v>
       </c>
       <c r="S28">
-        <v>0.07955740558062065</v>
+        <v>0.04038985690746684</v>
       </c>
       <c r="T28">
-        <v>0.07955740558062065</v>
+        <v>0.04038985690746685</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N29">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O29">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P29">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q29">
-        <v>9387.764673376132</v>
+        <v>7253.75138281149</v>
       </c>
       <c r="R29">
-        <v>84489.88206038519</v>
+        <v>65283.76244530341</v>
       </c>
       <c r="S29">
-        <v>0.01953904229318248</v>
+        <v>0.00905952948869262</v>
       </c>
       <c r="T29">
-        <v>0.01953904229318248</v>
+        <v>0.00905952948869262</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N30">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O30">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P30">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q30">
-        <v>27053.9068708812</v>
+        <v>38087.54329852173</v>
       </c>
       <c r="R30">
-        <v>243485.1618379308</v>
+        <v>342787.8896866955</v>
       </c>
       <c r="S30">
-        <v>0.05630812540978025</v>
+        <v>0.0475692098411945</v>
       </c>
       <c r="T30">
-        <v>0.05630812540978024</v>
+        <v>0.0475692098411945</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N31">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O31">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P31">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q31">
-        <v>46853.60583251715</v>
+        <v>27718.81781507</v>
       </c>
       <c r="R31">
-        <v>421682.4524926544</v>
+        <v>249469.36033563</v>
       </c>
       <c r="S31">
-        <v>0.09751784560023712</v>
+        <v>0.03461925204417377</v>
       </c>
       <c r="T31">
-        <v>0.09751784560023712</v>
+        <v>0.03461925204417378</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N32">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O32">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P32">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q32">
-        <v>6810.33968240113</v>
+        <v>22884.69496083741</v>
       </c>
       <c r="R32">
-        <v>61293.05714161017</v>
+        <v>205962.2546475367</v>
       </c>
       <c r="S32">
-        <v>0.01417456867690309</v>
+        <v>0.02858170316241039</v>
       </c>
       <c r="T32">
-        <v>0.01417456867690308</v>
+        <v>0.0285817031624104</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>247.152878</v>
       </c>
       <c r="O33">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P33">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q33">
-        <v>15835.27484417746</v>
+        <v>42011.46207834939</v>
       </c>
       <c r="R33">
-        <v>142517.4735975971</v>
+        <v>378103.1587051444</v>
       </c>
       <c r="S33">
-        <v>0.03295844278905215</v>
+        <v>0.05246996477764299</v>
       </c>
       <c r="T33">
-        <v>0.03295844278905213</v>
+        <v>0.05246996477764299</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N34">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O34">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P34">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q34">
-        <v>18256.40142085919</v>
+        <v>38509.8045691711</v>
       </c>
       <c r="R34">
-        <v>164307.6127877327</v>
+        <v>346588.2411225399</v>
       </c>
       <c r="S34">
-        <v>0.03799760772605728</v>
+        <v>0.04809659053450661</v>
       </c>
       <c r="T34">
-        <v>0.03799760772605727</v>
+        <v>0.04809659053450663</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N35">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O35">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P35">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q35">
-        <v>4483.713324738885</v>
+        <v>8637.829812011492</v>
       </c>
       <c r="R35">
-        <v>40353.41992264995</v>
+        <v>77740.46830810343</v>
       </c>
       <c r="S35">
-        <v>0.009332089941606149</v>
+        <v>0.01078816598066193</v>
       </c>
       <c r="T35">
-        <v>0.009332089941606144</v>
+        <v>0.01078816598066193</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N36">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O36">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P36">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q36">
-        <v>12921.28285524981</v>
+        <v>45354.97559922359</v>
       </c>
       <c r="R36">
-        <v>116291.5456972483</v>
+        <v>408194.7803930123</v>
       </c>
       <c r="S36">
-        <v>0.02689346196618114</v>
+        <v>0.0566458260306188</v>
       </c>
       <c r="T36">
-        <v>0.02689346196618113</v>
+        <v>0.05664582603061882</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N37">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O37">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P37">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q37">
-        <v>22377.8656679695</v>
+        <v>33007.80771782197</v>
       </c>
       <c r="R37">
-        <v>201400.7910117255</v>
+        <v>297070.2694603978</v>
       </c>
       <c r="S37">
-        <v>0.04657573756164114</v>
+        <v>0.04122490441088161</v>
       </c>
       <c r="T37">
-        <v>0.04657573756164113</v>
+        <v>0.04122490441088163</v>
       </c>
     </row>
   </sheetData>
